--- a/template_carta_correcao.xlsx
+++ b/template_carta_correcao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FYF9\OneDrive - PETROBRAS\Área de Trabalho\Github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Server AMD\Desktop\testes-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164363E6-6A6F-4DC9-89EB-65F7C32BB6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CF73BB-3770-4E71-BE42-E78A6463EEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19575" yWindow="60" windowWidth="18870" windowHeight="20805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Documento</t>
   </si>
@@ -28,10 +28,7 @@
     <t>Texto_Correcao</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>6669321x</t>
+    <t>QUANTIDADE 5 UNIDADES - VOLUME 2 CXS</t>
   </si>
 </sst>
 </file>
@@ -415,8 +412,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2">
+        <v>66693215</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
